--- a/MatlabWorkingDirectory/CoreLossData.xlsx
+++ b/MatlabWorkingDirectory/CoreLossData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/806421492071dedd/Programming/MATLAB/Scripts/Theses/WeightScripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/806421492071dedd/Programming/MATLAB/Projects/MyWork/SEAL/Theses/WorkingDirectory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{55B9B974-B90C-4244-A00D-420C4908A6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5587D9BA-0589-4483-8B93-2A51DCBBD536}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{55B9B974-B90C-4244-A00D-420C4908A6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE8F7C0D-EBC4-4408-84A3-7DCCBF080C9B}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="940" windowWidth="14880" windowHeight="18560" xr2:uid="{DBBFF40C-08CE-4204-B8AA-93E46D4D41B4}"/>
+    <workbookView xWindow="-15210" yWindow="8925" windowWidth="13515" windowHeight="11385" xr2:uid="{DBBFF40C-08CE-4204-B8AA-93E46D4D41B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Freq" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BSAT" sheetId="4" r:id="rId3"/>
     <sheet name="Ploss" sheetId="3" r:id="rId4"/>
     <sheet name="MU" sheetId="5" r:id="rId5"/>
+    <sheet name="Density" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,6 +41,29 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Andrew Cieslak</author>
+  </authors>
+  <commentList>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{92982DB9-50B7-4C50-8CEE-8D5FBB08E3C2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>r</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kelly Wang</author>
@@ -65,7 +89,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kelly Wang</author>
@@ -76,13 +100,21 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Kelly Wang:
-kW/m^3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">kW/m^3
 </t>
         </r>
       </text>
@@ -92,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="55">
   <si>
     <t>Material</t>
   </si>
@@ -151,9 +183,6 @@
     <t>F_Mag</t>
   </si>
   <si>
-    <t>Finemet FT-3M .018mm</t>
-  </si>
-  <si>
     <t>L_Mag</t>
   </si>
   <si>
@@ -254,13 +283,19 @@
   </si>
   <si>
     <t>MU_F2</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>VITROPERM500Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +310,18 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,6 +362,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,18 +687,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAB3957-C599-4EF5-ADED-AAAA23B84F7B}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +732,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -707,7 +758,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -733,7 +784,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -759,7 +810,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -791,7 +842,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -817,7 +868,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -849,7 +900,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -875,7 +926,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -895,7 +946,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -915,7 +966,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -947,7 +998,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -973,7 +1024,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -999,7 +1050,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1025,7 +1076,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1051,7 +1102,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1071,32 +1122,44 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C17">
+        <v>10000</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
         <v>20000</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>20000</v>
       </c>
-      <c r="E17">
-        <v>10000</v>
-      </c>
-      <c r="F17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>50000</v>
+      </c>
+      <c r="H17">
+        <v>50000</v>
+      </c>
+      <c r="I17">
+        <v>100000</v>
+      </c>
+      <c r="J17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>3000000</v>
@@ -1117,12 +1180,12 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -1143,12 +1206,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1000000</v>
@@ -1163,12 +1226,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1000000</v>
@@ -1183,12 +1246,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>500000</v>
@@ -1203,12 +1266,12 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>1000000</v>
@@ -1223,12 +1286,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>1000000</v>
@@ -1243,12 +1306,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>1000000</v>
@@ -1263,12 +1326,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>1000000</v>
@@ -1283,12 +1346,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>1000000</v>
@@ -1303,12 +1366,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>500000</v>
@@ -1329,12 +1392,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>1000000</v>
@@ -1349,12 +1412,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>500000</v>
@@ -1369,12 +1432,12 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>400000</v>
@@ -1398,19 +1461,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2C21D4-B214-41DA-A3D0-E209B569448D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2C21D4-B214-41DA-A3D0-E209B569448D}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,31 +1481,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1468,7 +1531,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1494,7 +1557,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1520,7 +1583,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1552,7 +1615,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1578,7 +1641,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1610,7 +1673,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1636,7 +1699,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1656,7 +1719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1676,7 +1739,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1708,7 +1771,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1734,7 +1797,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1760,7 +1823,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1786,7 +1849,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1812,7 +1875,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1832,32 +1895,44 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.8</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>0.01</v>
@@ -1878,12 +1953,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>0.2</v>
@@ -1904,12 +1979,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1.2500000000000001E-2</v>
@@ -1924,12 +1999,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>2.5000000000000001E-2</v>
@@ -1944,12 +2019,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>2.5000000000000001E-2</v>
@@ -1964,12 +2039,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>1.2999999999999999E-2</v>
@@ -1984,12 +2059,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>2.5000000000000001E-2</v>
@@ -2004,12 +2079,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>2.5000000000000001E-2</v>
@@ -2024,12 +2099,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>2.5000000000000001E-2</v>
@@ -2044,12 +2119,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>2.5000000000000001E-2</v>
@@ -2064,12 +2139,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>0.05</v>
@@ -2090,12 +2165,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>2.5000000000000001E-2</v>
@@ -2110,12 +2185,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>0.06</v>
@@ -2130,12 +2205,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>0.05</v>
@@ -2155,6 +2230,7 @@
     <sortCondition ref="B2:B45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2162,17 +2238,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144D67B0-4418-460A-9C79-0C18C12E35CB}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2180,25 +2256,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2209,7 +2285,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2220,7 +2296,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2231,7 +2307,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2242,7 +2318,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2253,7 +2329,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2264,7 +2340,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2275,7 +2351,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2286,7 +2362,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2297,7 +2373,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2308,7 +2384,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2319,7 +2395,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2330,7 +2406,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2341,7 +2417,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2352,7 +2428,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2363,166 +2439,166 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>0.52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>0.38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>0.44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>0.41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0.41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>0.47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>0.42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>0.47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>0.53</v>
@@ -2541,16 +2617,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179D8C7E-15F9-48DF-9250-6C37E27A8B54}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A10" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2558,31 +2634,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2614,7 +2690,7 @@
         <v>61.13051999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2640,7 +2716,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2666,7 +2742,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2706,7 +2782,7 @@
         <v>138.05279999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2738,7 +2814,7 @@
         <v>106.7856</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2770,7 +2846,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2796,7 +2872,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2816,7 +2892,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2836,7 +2912,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2868,7 +2944,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2894,7 +2970,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2920,7 +2996,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2946,7 +3022,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2972,7 +3048,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2992,36 +3068,44 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <f>7.3*4.482</f>
-        <v>32.718600000000002</v>
+        <v>8.74</v>
       </c>
       <c r="D17">
-        <f>7.3*18.397</f>
-        <v>134.29809999999998</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="E17">
-        <f>7.3*3.762</f>
-        <v>27.462599999999998</v>
+        <v>24.72</v>
       </c>
       <c r="F17">
-        <f>7.3*16.398</f>
-        <v>119.7054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>197.76</v>
+      </c>
+      <c r="G17">
+        <v>97.71</v>
+      </c>
+      <c r="H17">
+        <v>781.72</v>
+      </c>
+      <c r="I17">
+        <v>276.38</v>
+      </c>
+      <c r="J17">
+        <v>2211.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>53</v>
@@ -3042,12 +3126,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>30.062000000000001</v>
@@ -3068,12 +3152,12 @@
         <v>2718.01</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -3088,12 +3172,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>510</v>
@@ -3108,12 +3192,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>44</v>
@@ -3128,12 +3212,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>56</v>
@@ -3148,12 +3232,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>237</v>
@@ -3168,12 +3252,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>297</v>
@@ -3188,12 +3272,12 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>287</v>
@@ -3208,12 +3292,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>250</v>
@@ -3228,12 +3312,12 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>290</v>
@@ -3254,12 +3338,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>270</v>
@@ -3274,12 +3358,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>250</v>
@@ -3294,12 +3378,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>131</v>
@@ -3328,15 +3412,15 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3344,25 +3428,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3373,7 +3457,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3384,7 +3468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3395,7 +3479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3406,7 +3490,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3417,7 +3501,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3428,7 +3512,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3439,7 +3523,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3450,7 +3534,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3461,7 +3545,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3472,7 +3556,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3483,7 +3567,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3494,7 +3578,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3505,7 +3589,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3516,7 +3600,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3527,166 +3611,166 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>750</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>1900</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>2900</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>2300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>2500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>2300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>3000</v>
@@ -3698,4 +3782,363 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF723227-E9B3-1142-B01C-BBF32FD41205}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>4.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>